--- a/Epreuve E4.xlsx
+++ b/Epreuve E4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\1A\JANUEL\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\Port-Foglio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Travailler en mode projet</t>
-  </si>
-  <si>
-    <t>Mettre à disposition des utilisateurs un service informatique</t>
   </si>
   <si>
     <t>Organiser son développement professionnel</t>
@@ -82,9 +79,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>▢ SLAM</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
   </si>
   <si>
     <t xml:space="preserve">N° candidat : XXXXXXXXXXXX </t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <r>
@@ -147,16 +138,22 @@
     <t>React JS ;HTML/CSS ;Responsive</t>
   </si>
   <si>
-    <t>Projet Netflix répartition des tâches(GitHub Kanban)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Création d'une base de données dans le cadre de gestion d'un projet de création de Netflix </t>
   </si>
   <si>
     <t>NOM et prénom : Mathis AIT AOMAR</t>
   </si>
   <si>
-    <t>Projt Monopoly(POO,Python)</t>
+    <t>Projet Netflix répartition des tâches (GitHub Kanban)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre à disposition un service informatique à des utilisateurs </t>
+  </si>
+  <si>
+    <t>Projet Monopoly (POO,Python)</t>
+  </si>
+  <si>
+    <t>Centre de formation : Lyçée Georges Brassens, Rive de Gier (42800)</t>
   </si>
 </sst>
 </file>
@@ -166,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -248,8 +245,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +269,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -606,7 +658,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -623,15 +675,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -671,9 +714,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,10 +729,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,9 +738,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -748,6 +782,57 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1060,122 +1145,122 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col min="3" max="8" width="21.42578125" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.42578125" customWidth="1"/>
     <col min="44" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>6</v>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="36" t="s">
+        <v>18</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="45"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="39"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>14</v>
+      <c r="A4" s="36" t="s">
+        <v>27</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="46" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="56" t="s">
         <v>12</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1214,16 +1299,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>16</v>
+      <c r="A7" s="27" t="s">
+        <v>14</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="36"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="30"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1261,18 +1346,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26" t="s">
+      <c r="A8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="17"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="14"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1310,18 +1393,16 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>25</v>
+      <c r="A9" s="8" t="s">
+        <v>24</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1359,18 +1440,16 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>26</v>
+      <c r="A10" s="58" t="s">
+        <v>22</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="17"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="14"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1408,18 +1487,16 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>28</v>
+      <c r="A11" s="58" t="s">
+        <v>26</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1457,14 +1534,14 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1502,14 +1579,14 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1547,14 +1624,14 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1592,14 +1669,14 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1637,14 +1714,14 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1682,14 +1759,14 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1727,16 +1804,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>18</v>
+      <c r="A18" s="31" t="s">
+        <v>16</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1774,14 +1851,14 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1819,14 +1896,14 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1864,14 +1941,14 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1909,14 +1986,14 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1954,14 +2031,14 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1999,14 +2076,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2044,14 +2121,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2089,14 +2166,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2134,16 +2211,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>19</v>
+      <c r="A27" s="31" t="s">
+        <v>17</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2181,14 +2258,14 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2226,14 +2303,14 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2271,14 +2348,14 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2316,14 +2393,14 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2361,14 +2438,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2406,14 +2483,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2451,14 +2528,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2496,14 +2573,14 @@
       <c r="AQ34"/>
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2633,17 +2710,17 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A18:H18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Epreuve E4.xlsx
+++ b/Epreuve E4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Centre de formation : Lyçée Georges Brassens, Rive de Gier (42800)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage Boulangerie MGM </t>
+  </si>
+  <si>
+    <t>Projet WoodyCraftWeb (Laravel)</t>
   </si>
 </sst>
 </file>
@@ -729,6 +735,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,90 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1145,8 +1151,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1159,107 +1165,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="36" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="39"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="49"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="40" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="57" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="38" t="s">
         <v>12</v>
       </c>
       <c r="I6"/>
@@ -1299,16 +1305,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="30"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="58"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1346,13 +1352,13 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="12"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="48"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
       <c r="H8" s="14"/>
@@ -1400,7 +1406,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
       <c r="I9"/>
@@ -1440,7 +1446,7 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="6"/>
@@ -1448,7 +1454,7 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="50"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="14"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -1486,15 +1492,15 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="51"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
       <c r="I11"/>
@@ -1533,14 +1539,16 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="14"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -1579,7 +1587,9 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1804,16 +1814,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2211,16 +2221,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2710,17 +2720,17 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A18:H18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Epreuve E4.xlsx
+++ b/Epreuve E4.xlsx
@@ -156,10 +156,10 @@
     <t>Centre de formation : Lyçée Georges Brassens, Rive de Gier (42800)</t>
   </si>
   <si>
-    <t xml:space="preserve">Stage Boulangerie MGM </t>
-  </si>
-  <si>
     <t>Projet WoodyCraftWeb (Laravel)</t>
+  </si>
+  <si>
+    <t>Stage Boulangerie MGM Developpement de Site Vitrine</t>
   </si>
 </sst>
 </file>
@@ -265,7 +265,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +319,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -664,7 +670,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -786,6 +792,27 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,25 +846,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,8 +1163,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1165,67 +1177,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="46" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="49"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="56"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="50" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="51" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -1248,8 +1260,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="39" t="s">
         <v>7</v>
       </c>
@@ -1305,16 +1317,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="58"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="47"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1586,16 +1598,14 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>29</v>
-      </c>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="14"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -1814,16 +1824,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2220,17 +2230,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2267,14 +2277,16 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="B28" s="6"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="14"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -2720,17 +2732,17 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A18:H18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
